--- a/Suivi du projet/SuiviProjet-CURRENT.xlsx
+++ b/Suivi du projet/SuiviProjet-CURRENT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasilisskarleas/Desktop/University/MAP401/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasilisskarleas/Desktop/University/MAP401/Suivi du projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50998DC5-DB41-C94F-A862-19F1F523FBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09A467-9639-6D44-9440-D48516252697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22120" windowHeight="15760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22120" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiagrammeGanttReel" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
   <si>
     <t>s3</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t xml:space="preserve">Verifying every single line of code that has been deployed on the github repository </t>
+  </si>
+  <si>
+    <t>Couldn't concatinate text with number in order to generate the final name of the exite_file (for instance when the postscript is generated for an image and it's saved on a separate file)</t>
+  </si>
+  <si>
+    <t>Usage of the command snprintf with a size of buffer strlen(name)+x</t>
   </si>
 </sst>
 </file>
@@ -588,7 +594,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -620,19 +626,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="En-tête" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1014,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A3:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1028,74 +1035,74 @@
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="21" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="21" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21" t="s">
+      <c r="R3" s="23"/>
+      <c r="S3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="22" t="s">
+      <c r="T3" s="23"/>
+      <c r="U3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="21" t="s">
+      <c r="V3" s="24"/>
+      <c r="W3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="22" t="s">
+      <c r="X3" s="23"/>
+      <c r="Y3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="21" t="s">
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="22" t="s">
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22" t="s">
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22" t="s">
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22" t="s">
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="22"/>
+      <c r="AJ3" s="24"/>
     </row>
     <row r="4" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1112,30 +1119,30 @@
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
+      <c r="T4" s="22"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="23"/>
+      <c r="AB4" s="22"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -1160,24 +1167,24 @@
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -1202,24 +1209,24 @@
       <c r="H6" s="5"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -1244,24 +1251,24 @@
       <c r="H7" s="18"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -1286,24 +1293,24 @@
       <c r="H8" s="18"/>
       <c r="I8" s="17"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="2"/>
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -1328,24 +1335,24 @@
       <c r="H9" s="5"/>
       <c r="I9" s="17"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="20"/>
       <c r="N9" s="18"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
       <c r="U9" s="2"/>
       <c r="V9" s="5"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -1370,24 +1377,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="2"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
       <c r="O10" s="17"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="25"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="2"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -1412,24 +1419,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="2"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="17"/>
       <c r="X11" s="18"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="2"/>
@@ -1446,32 +1453,32 @@
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="5"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="5"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="18"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -1496,24 +1503,24 @@
       <c r="H13" s="5"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="2"/>
@@ -1536,24 +1543,24 @@
       <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="2"/>
@@ -1567,13 +1574,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -1582,11 +1587,13 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -1599,10 +1606,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2156,6 +2163,29 @@
         <v>45011</v>
       </c>
       <c r="G24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19">
+        <v>45013</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="19">
+        <v>45013</v>
+      </c>
+      <c r="F25" s="19">
+        <v>45013</v>
+      </c>
+      <c r="G25" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2188,74 +2218,74 @@
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="21" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21" t="s">
+      <c r="R3" s="23"/>
+      <c r="S3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="22" t="s">
+      <c r="T3" s="23"/>
+      <c r="U3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="21" t="s">
+      <c r="V3" s="24"/>
+      <c r="W3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="22" t="s">
+      <c r="X3" s="23"/>
+      <c r="Y3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="21" t="s">
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="22" t="s">
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22" t="s">
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22" t="s">
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22" t="s">
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="22"/>
+      <c r="AJ3" s="24"/>
     </row>
     <row r="4" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2272,30 +2302,30 @@
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
+      <c r="T4" s="22"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="23"/>
+      <c r="AB4" s="22"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -2320,24 +2350,24 @@
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -2362,24 +2392,24 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -2404,24 +2434,24 @@
       <c r="H7" s="5"/>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -2446,24 +2476,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="9"/>
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -2488,24 +2518,24 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="2"/>
       <c r="N9" s="5"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
       <c r="U9" s="13"/>
       <c r="V9" s="11"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -2530,24 +2560,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
       <c r="O10" s="2"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
       <c r="U10" s="2"/>
       <c r="V10" s="5"/>
       <c r="W10" s="9"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -2572,24 +2602,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="2"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="2"/>
@@ -2612,24 +2642,24 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
       <c r="U12" s="13"/>
       <c r="V12" s="10"/>
       <c r="W12" s="13"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -2652,24 +2682,24 @@
       <c r="H13" s="6"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="2"/>
@@ -2692,24 +2722,24 @@
       <c r="H14" s="6"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="9"/>
@@ -2723,13 +2753,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -2738,11 +2766,13 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/Suivi du projet/SuiviProjet-CURRENT.xlsx
+++ b/Suivi du projet/SuiviProjet-CURRENT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasilisskarleas/Desktop/University/MAP401/Suivi du projet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasilisskarleas/Documents/University/2nd year/S4/MAP401/Suivi du projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09A467-9639-6D44-9440-D48516252697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87A4840-31CD-3A4B-8243-42B1D0A52BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22120" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="27620" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiagrammeGanttReel" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="112">
   <si>
     <t>s3</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>Usage of the command snprintf with a size of buffer strlen(name)+x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme faisait de "killed" dans le tache 8.1 </t>
+  </si>
+  <si>
+    <t>On a changé le profil de la fonction simplification_dougal_peucker d'accepter directement un tableau des points au lieu d'une liste chaine</t>
   </si>
 </sst>
 </file>
@@ -627,19 +633,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="En-tête" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1021,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A3:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12:X12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1119,30 +1125,30 @@
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
+      <c r="T4" s="25"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="22" t="s">
+      <c r="AA4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="22"/>
+      <c r="AB4" s="25"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -1167,24 +1173,24 @@
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -1209,24 +1215,24 @@
       <c r="H6" s="5"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -1251,24 +1257,24 @@
       <c r="H7" s="18"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -1293,24 +1299,24 @@
       <c r="H8" s="18"/>
       <c r="I8" s="17"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="2"/>
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -1335,24 +1341,24 @@
       <c r="H9" s="5"/>
       <c r="I9" s="17"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="20"/>
       <c r="N9" s="18"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
       <c r="U9" s="2"/>
       <c r="V9" s="5"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -1377,24 +1383,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="2"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
       <c r="O10" s="17"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
       <c r="U10" s="20"/>
       <c r="V10" s="21"/>
       <c r="W10" s="2"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -1419,24 +1425,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="2"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="17"/>
       <c r="X11" s="18"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="17"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="2"/>
@@ -1461,24 +1467,24 @@
       <c r="H12" s="18"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="26"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="17"/>
       <c r="O12" s="18"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
       <c r="U12" s="17"/>
       <c r="V12" s="18"/>
       <c r="W12" s="17"/>
       <c r="X12" s="18"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="17"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -1503,24 +1509,24 @@
       <c r="H13" s="5"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="17"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="2"/>
@@ -1543,24 +1549,24 @@
       <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="2"/>
@@ -1574,11 +1580,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -1587,13 +1595,11 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -1606,10 +1612,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2186,6 +2192,29 @@
         <v>45013</v>
       </c>
       <c r="G25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19">
+        <v>45020</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="19">
+        <v>45020</v>
+      </c>
+      <c r="F26" s="19">
+        <v>45020</v>
+      </c>
+      <c r="G26" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2218,14 +2247,14 @@
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="23" t="s">
         <v>2</v>
       </c>
@@ -2302,30 +2331,30 @@
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
+      <c r="T4" s="25"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="22" t="s">
+      <c r="AA4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="22"/>
+      <c r="AB4" s="25"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -2350,24 +2379,24 @@
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -2392,24 +2421,24 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -2434,24 +2463,24 @@
       <c r="H7" s="5"/>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -2476,24 +2505,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="9"/>
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -2518,24 +2547,24 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="2"/>
       <c r="N9" s="5"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
       <c r="U9" s="13"/>
       <c r="V9" s="11"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -2560,24 +2589,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
       <c r="O10" s="2"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
       <c r="U10" s="2"/>
       <c r="V10" s="5"/>
       <c r="W10" s="9"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -2602,24 +2631,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="2"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="2"/>
@@ -2642,24 +2671,24 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
       <c r="U12" s="13"/>
       <c r="V12" s="10"/>
       <c r="W12" s="13"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -2682,24 +2711,24 @@
       <c r="H13" s="6"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="2"/>
@@ -2722,24 +2751,24 @@
       <c r="H14" s="6"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="9"/>
@@ -2753,11 +2782,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -2766,13 +2797,11 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/Suivi du projet/SuiviProjet-CURRENT.xlsx
+++ b/Suivi du projet/SuiviProjet-CURRENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasilisskarleas/Documents/University/2nd year/S4/MAP401/Suivi du projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87A4840-31CD-3A4B-8243-42B1D0A52BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64E3169-89C3-C541-AAB5-4A318638BA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="500" windowWidth="27620" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,14 +634,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A3:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1041,74 +1041,74 @@
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="23" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23" t="s">
+      <c r="N3" s="25"/>
+      <c r="O3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23" t="s">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23" t="s">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="23" t="s">
+      <c r="V3" s="25"/>
+      <c r="W3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="24" t="s">
+      <c r="X3" s="24"/>
+      <c r="Y3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="23" t="s">
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="24" t="s">
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24" t="s">
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24" t="s">
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24" t="s">
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="24"/>
+      <c r="AJ3" s="25"/>
     </row>
     <row r="4" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1125,30 +1125,30 @@
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="25"/>
+      <c r="T4" s="23"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="25"/>
+      <c r="AB4" s="23"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -1173,24 +1173,24 @@
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -1215,24 +1215,24 @@
       <c r="H6" s="5"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -1257,24 +1257,24 @@
       <c r="H7" s="18"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -1299,24 +1299,24 @@
       <c r="H8" s="18"/>
       <c r="I8" s="17"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="2"/>
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -1341,24 +1341,24 @@
       <c r="H9" s="5"/>
       <c r="I9" s="17"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="20"/>
       <c r="N9" s="18"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
       <c r="U9" s="2"/>
       <c r="V9" s="5"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -1383,24 +1383,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="2"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
       <c r="O10" s="17"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
       <c r="U10" s="20"/>
       <c r="V10" s="21"/>
       <c r="W10" s="2"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -1425,24 +1425,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="2"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="17"/>
       <c r="X11" s="18"/>
       <c r="Y11" s="17"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="2"/>
@@ -1467,24 +1467,24 @@
       <c r="H12" s="18"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="22"/>
       <c r="N12" s="17"/>
       <c r="O12" s="18"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
       <c r="U12" s="17"/>
       <c r="V12" s="18"/>
       <c r="W12" s="17"/>
       <c r="X12" s="18"/>
       <c r="Y12" s="17"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -1509,24 +1509,24 @@
       <c r="H13" s="5"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="17"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="2"/>
@@ -1549,24 +1549,24 @@
       <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="2"/>
@@ -1580,13 +1580,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -1595,11 +1593,13 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -2255,66 +2255,66 @@
         <v>1</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="23" t="s">
+      <c r="L3" s="25"/>
+      <c r="M3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23" t="s">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23" t="s">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="23" t="s">
+      <c r="V3" s="25"/>
+      <c r="W3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="24" t="s">
+      <c r="X3" s="24"/>
+      <c r="Y3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="23" t="s">
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="24" t="s">
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24" t="s">
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24" t="s">
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24" t="s">
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="24"/>
+      <c r="AJ3" s="25"/>
     </row>
     <row r="4" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2331,30 +2331,30 @@
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="25"/>
+      <c r="T4" s="23"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="25"/>
+      <c r="AB4" s="23"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -2379,24 +2379,24 @@
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -2421,24 +2421,24 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -2463,24 +2463,24 @@
       <c r="H7" s="5"/>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -2505,24 +2505,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="9"/>
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -2547,24 +2547,24 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="2"/>
       <c r="N9" s="5"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
       <c r="U9" s="13"/>
       <c r="V9" s="11"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -2589,24 +2589,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
       <c r="O10" s="2"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
       <c r="U10" s="2"/>
       <c r="V10" s="5"/>
       <c r="W10" s="9"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -2631,24 +2631,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="2"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="2"/>
@@ -2671,24 +2671,24 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
       <c r="U12" s="13"/>
       <c r="V12" s="10"/>
       <c r="W12" s="13"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -2711,24 +2711,24 @@
       <c r="H13" s="6"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="2"/>
@@ -2751,24 +2751,24 @@
       <c r="H14" s="6"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="9"/>
@@ -2782,13 +2782,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -2797,11 +2795,13 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/Suivi du projet/SuiviProjet-CURRENT.xlsx
+++ b/Suivi du projet/SuiviProjet-CURRENT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasilisskarleas/Documents/University/2nd year/S4/MAP401/Suivi du projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64E3169-89C3-C541-AAB5-4A318638BA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9248C85E-6702-0549-A533-8F450C9D8865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="27620" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="500" windowWidth="27480" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiagrammeGanttReel" sheetId="1" r:id="rId1"/>
@@ -634,14 +634,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,7 +1027,7 @@
   </sheetPr>
   <dimension ref="A3:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="S4" sqref="S4:T14"/>
     </sheetView>
   </sheetViews>
@@ -1041,74 +1041,74 @@
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="24" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="24" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24" t="s">
+      <c r="R3" s="23"/>
+      <c r="S3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="25" t="s">
+      <c r="T3" s="23"/>
+      <c r="U3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="25"/>
-      <c r="W3" s="24" t="s">
+      <c r="V3" s="24"/>
+      <c r="W3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25" t="s">
+      <c r="X3" s="23"/>
+      <c r="Y3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="24" t="s">
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="25" t="s">
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25" t="s">
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25" t="s">
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25" t="s">
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="25"/>
+      <c r="AJ3" s="24"/>
     </row>
     <row r="4" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1125,30 +1125,30 @@
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
+      <c r="T4" s="25"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="23"/>
+      <c r="AB4" s="25"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -1173,24 +1173,24 @@
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -1215,24 +1215,24 @@
       <c r="H6" s="5"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -1257,24 +1257,24 @@
       <c r="H7" s="18"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -1299,24 +1299,24 @@
       <c r="H8" s="18"/>
       <c r="I8" s="17"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="2"/>
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -1341,24 +1341,24 @@
       <c r="H9" s="5"/>
       <c r="I9" s="17"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="20"/>
       <c r="N9" s="18"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
       <c r="U9" s="2"/>
       <c r="V9" s="5"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -1383,24 +1383,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="2"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
       <c r="O10" s="17"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
       <c r="U10" s="20"/>
       <c r="V10" s="21"/>
       <c r="W10" s="2"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -1425,24 +1425,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="2"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="17"/>
       <c r="X11" s="18"/>
       <c r="Y11" s="17"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="2"/>
@@ -1467,24 +1467,24 @@
       <c r="H12" s="18"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="22"/>
       <c r="N12" s="17"/>
       <c r="O12" s="18"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
       <c r="U12" s="17"/>
       <c r="V12" s="18"/>
       <c r="W12" s="17"/>
       <c r="X12" s="18"/>
       <c r="Y12" s="17"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -1509,24 +1509,24 @@
       <c r="H13" s="5"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="18"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="2"/>
@@ -1549,24 +1549,24 @@
       <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="2"/>
@@ -1580,11 +1580,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -1593,13 +1595,11 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -1614,15 +1614,16 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="4" width="46" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" customWidth="1"/>
     <col min="5" max="7" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1957,6 +1958,9 @@
       </c>
       <c r="D15" t="s">
         <v>89</v>
+      </c>
+      <c r="E15" s="19">
+        <v>44978</v>
       </c>
       <c r="F15" s="19">
         <v>44978</v>
@@ -2255,66 +2259,66 @@
         <v>1</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="24" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24" t="s">
+      <c r="R3" s="23"/>
+      <c r="S3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="25" t="s">
+      <c r="T3" s="23"/>
+      <c r="U3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="25"/>
-      <c r="W3" s="24" t="s">
+      <c r="V3" s="24"/>
+      <c r="W3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25" t="s">
+      <c r="X3" s="23"/>
+      <c r="Y3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="24" t="s">
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="25" t="s">
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25" t="s">
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25" t="s">
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25" t="s">
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="25"/>
+      <c r="AJ3" s="24"/>
     </row>
     <row r="4" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2331,30 +2335,30 @@
       <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
+      <c r="T4" s="25"/>
       <c r="U4" s="2"/>
       <c r="V4" s="5"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="23"/>
+      <c r="AB4" s="25"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2"/>
@@ -2379,24 +2383,24 @@
       <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
       <c r="U5" s="2"/>
       <c r="V5" s="5"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2"/>
@@ -2421,24 +2425,24 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
       <c r="U6" s="2"/>
       <c r="V6" s="5"/>
       <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="2"/>
@@ -2463,24 +2467,24 @@
       <c r="H7" s="5"/>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
       <c r="U7" s="2"/>
       <c r="V7" s="5"/>
       <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="2"/>
@@ -2505,24 +2509,24 @@
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="9"/>
       <c r="N8" s="12"/>
       <c r="O8" s="13"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5"/>
       <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="2"/>
@@ -2547,24 +2551,24 @@
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="2"/>
       <c r="N9" s="5"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
       <c r="U9" s="13"/>
       <c r="V9" s="11"/>
       <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="2"/>
@@ -2589,24 +2593,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="2"/>
       <c r="N10" s="5"/>
       <c r="O10" s="2"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
       <c r="U10" s="2"/>
       <c r="V10" s="5"/>
       <c r="W10" s="9"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="2"/>
@@ -2631,24 +2635,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
       <c r="W11" s="2"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="2"/>
@@ -2671,24 +2675,24 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="13"/>
       <c r="N12" s="12"/>
       <c r="O12" s="13"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
       <c r="U12" s="13"/>
       <c r="V12" s="10"/>
       <c r="W12" s="13"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="2"/>
@@ -2711,24 +2715,24 @@
       <c r="H13" s="6"/>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
       <c r="U13" s="2"/>
       <c r="V13" s="5"/>
       <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="2"/>
@@ -2751,24 +2755,24 @@
       <c r="H14" s="6"/>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
       <c r="U14" s="2"/>
       <c r="V14" s="5"/>
       <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="9"/>
@@ -2782,11 +2786,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L14"/>
+    <mergeCell ref="S4:T14"/>
+    <mergeCell ref="AA4:AB14"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -2795,13 +2801,11 @@
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="K4:L14"/>
-    <mergeCell ref="S4:T14"/>
-    <mergeCell ref="AA4:AB14"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
